--- a/data/resumen_por_artista_T4-2025.xlsx
+++ b/data/resumen_por_artista_T4-2025.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Song" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Source" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,20 +43,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="D9:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,136 +425,1438 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Artista Normalizado</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Your Earnings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>grupo 360</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3290.79515900609</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pablito osorio</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>267.0266444782399</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>michel cruz</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>225.2872053920157</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>villa 5</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>50.11579537091697</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>wil caro</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.424896418162811</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>los dragones de sinaloa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.87288712998786</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>dazoner</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9480871809312907</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>frank luka</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3831197667295445</v>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>SONG</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>UNITS</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>ROYALTIES</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>badly rouse</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Dos Jovenes Muchachos - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>370310</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1606.773151530957</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Neto Roca - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>139895</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>675.0067008400409</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>2 Banderas - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>73419</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>423.8097953833774</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Guzman - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>57835</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>299.5937068518355</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Jasper O MV - Michel Cruz and La Expansion</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>99690</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>215.0325137351744</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Net Payment</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3841.108195596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>El 2 de los Cabrera - Pablito Osorio, Grupo Aztteca and Los Nuevos Coyonquis</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>80055</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>132.0893597302</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>El 15nas - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>29597</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>108.5963817438383</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Que bonita chaparrita - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>21247</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>60.48835066436529</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Adios Vasconcelos - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>9461</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>43.7746439121889</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Hablemos - Pablito Osorio and JPL</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>13076</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>24.44404541866886</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>MOSCu - Pablito Osorio and Carlos Caro</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>9240</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>23.05630396864445</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Prisionero de tus besos - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>4177</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>21.64657147974683</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>De Negro LV - Pablito Osorio and Victor Ortega</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>6390</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>21.58166335199582</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Tu Nuevo Carinito - Villa 5</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>25617</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>18.6579911752642</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>De €uros y Verde$ - Pablito Osorio and Panchito Renteria</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>8783</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>16.09883260319114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Ex Belico - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>4692</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>15.85668681389467</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>De Puntitas - Villa 5</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>7844</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>12.84320664921378</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>La Chaparrita - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>12.66841816202197</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>SRT - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>2996</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>8.530850557768348</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>La Mera Sensacion - Pablito Osorio and Sucesion M</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>4731</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>7.851043870647058</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Prohibido - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1657</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>7.432821165067182</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Te Quiero - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>7.075894088557342</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Traigo un amor - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>6.547817472259872</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Paloma sin nido - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>6.122034965494163</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>De Lejitos Los Miro - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>5.90214137751128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Para que quieres volver - Grupo 360</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>5.35672936882769</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Mujer De Piedra - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>3.856717433007505</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Prietita Malora - Villa 5</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>2808</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>3.764127410737829</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>El Pasecito - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>2.958224989954235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>2 Seres Que Se Aman - Villa 5</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>2.860893350704019</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>No Podras - Michel Cruz featuring La Banda Anonima</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1709</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>2.675640993671302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Skip En El Amor - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>2.66140500760272</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>La Chapiza - Wil Caro and Grupo La Marcha</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>2.507398405379322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Por Las Nubes - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>2.298894897254545</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Tengo Miedo - Villa 5</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>2571</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>2.186920587748545</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Al Amor Digo Bye - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1.969042476252541</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>El Tercero Al Mando - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1.96264337491961</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Entre Cortinas Blancas - Villa 5</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1.938026237775385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Recuerdo Mi Pasado - Michel Cruz and La Destreza</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1.88914277107153</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Busca Otro Amor - Villa 5</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1.740930434171274</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>Como Quisiera - Villa 5</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1.655862570475253</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>A Los Angeles Del Cielo - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1.600555245674145</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>No Se Valorar - Villa 5</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1.348246412978628</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Palabras Hermosas - Villa 5 and Dueto Consentido</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1.291971464997219</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Volverte A Amar - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1.273947989492006</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Salio Caro - Los Dragones De Sinaloa</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>1.192385337522562</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Delgadina - Villa 5</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>0.9813425632248325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>El Chuletas - Michel Cruz featuring Choforo</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0.9767189294491827</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Ganga - DAZONER</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>0.9429314035843228</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Las Adulaciones - Villa 5</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>0.8462765136260113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Por Retenerte - Los Dragones De Sinaloa</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>0.6805017924652982</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>El Peine - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>0.6608473022822253</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Ranchero De Calidad - Wil Caro and La Septima Banda featuring Los De Las Guitarras</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>0.6212857370513901</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Se Murio De Amor - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>0.6159743369096831</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>El Amigo Emilio - Wil Caro and La Septima Banda</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>0.6129824074568933</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>En Realidad - Wil Caro</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>0.5655417306188146</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Sobre Mis Pies - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>0.4532094840064289</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>Todo Cambio - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>0.4340791307154984</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Sin Frenos - Frank Luka</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>0.376008629449742</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Los Grandes Jefes - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>0.3397367289054115</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Secuestro De Amor - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>0.3196327800745442</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Amor Platonico - Pablito Osorio</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>0.2345712759127755</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>No Sera Cuando Tu Quieras - Michel Cruz and La Banda Anonima</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>0.1863048949213114</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>Yo Necesito Saber - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>0.1769021653263201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>Tu Ganador - Wil Caro and La Septima Banda</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>0.117688137656391</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>MOSCu - Pablito Osorio Lyric Video - MOSCu - Pablito Osorio Lyric Video</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>0.1135769444342077</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>Na De Na - Badly Rouse</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="F76" s="1" t="n">
         <v>0.107532440569873</v>
       </c>
     </row>
+    <row r="77">
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>Y Por Lo Pronto - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>0.07280374927978829</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>La Baraja - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>0.07041943669760152</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Beltran - Michel Cruz and La Banda Anonima</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>0.03983147304264766</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Que nos paso? - Panchito Renteria and Carolina Moreno</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>0.0379401873768847</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>En Peligro de Extincion - Panchito Renteria</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>0.01195125178949024</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>Las Costumbres - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>0.009189098040450766</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>Faded - Frank Luka</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>0.007111137279802469</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Ya me Acostumbre - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>0.00629308114905722</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Hace Tiempo - DAZONER</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>0.005155777346967984</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>El Desquite - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>0.004608329498237447</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>Mis Mujeres - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>0.003704721731151329</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>De Curos y Verdes - Pablito Osorio and Panchito Renteria</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>0.001974161430687418</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>Quiereme Mientras Se Pueda - Carlos Ramirez</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>0.001627022494940979</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>Las quejas de un trovador - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>0.0004126776664385659</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>El Pendiente - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>0.0003551464462190068</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>Las Piedras - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>0.0003551464462190068</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>El Paysano - Michel Cruz</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>0.000171284479920432</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>20 Anos - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>4.104177711165948e-06</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>2 Pasajes - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>4.104177711165948e-06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>Yo me enamore - Los 2 de Arriba</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>4.104177711165948e-06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>1005877</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>3841.108195596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="D9:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9">
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>SOURCE</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>UNITS</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>ROYALTIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Apple Music</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>307368</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1877.596495794294</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>los 2 de arriba</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.09534995020850837</v>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>442340</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>903.8717148643909</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>panchito renteria</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.04989143916637494</v>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Youtube Music</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>110890</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>853.4858949223158</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>carlos ramirez</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.001627022494940979</v>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Youtube Ad Supported</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>113139</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>86.19507554714453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Soundcloud</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>15436</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>51.93406442563381</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Net Payment</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3841.108195596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Amazon Unlimited</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>7613</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>45.06808957446121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Deezer</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>8.910708098714125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>iTunes</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>3.936991527641596</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Audiomack</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>4726</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>3.403016032277173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Tidal</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2.564279712902898</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1.443153928812935</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Amazon Prime</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1.172483386005231</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Audible Magic</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0.7273226323585225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>iTunes Match</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.3711834057201744</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>iHeart Radio US</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.3403349675949282</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Amazon ADS</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.08738677524554453</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1005877</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>3841.108195596</v>
       </c>
     </row>
   </sheetData>
